--- a/excel/collective/zestawy_dla_uczniow/zestaw_005.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_005.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Oliwia Olszewska</t>
-  </si>
-  <si>
-    <t>Lena Zawadzka</t>
-  </si>
-  <si>
-    <t>Aleksander Dąbrowski</t>
-  </si>
-  <si>
-    <t>Filip Kowalczyk</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>Oliwia Wójcik</t>
+  </si>
+  <si>
+    <t>Kacper Wojciechowski</t>
+  </si>
+  <si>
+    <t>Maja Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Kaczmarek</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -163,37 +163,37 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,90</t>
+    <t>1,00</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>4,20</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>3,80</t>
+    <t>2,20</t>
   </si>
   <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,50</t>
+    <t>2,40</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,80</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>5,60</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>12,40</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>16,37</t>
+    <t>6,34</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>11,41</t>
+    <t>9,39</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>17,25</t>
+    <t>26,39</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>25,51</t>
+    <t>30,66</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>14,95</t>
+    <t>27,37</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>20,06</t>
-  </si>
-  <si>
-    <t>10,28</t>
-  </si>
-  <si>
     <t>2,31</t>
   </si>
   <si>
-    <t>20,16</t>
-  </si>
-  <si>
-    <t>19,03</t>
+    <t>29,95</t>
+  </si>
+  <si>
+    <t>6,30</t>
+  </si>
+  <si>
+    <t>23,04</t>
+  </si>
+  <si>
+    <t>28,54</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>1,78</t>
-  </si>
-  <si>
-    <t>29,59</t>
-  </si>
-  <si>
-    <t>1,42</t>
-  </si>
-  <si>
-    <t>16,36</t>
-  </si>
-  <si>
-    <t>21,63</t>
+    <t>10,32</t>
+  </si>
+  <si>
+    <t>10,40</t>
+  </si>
+  <si>
+    <t>5,54</t>
+  </si>
+  <si>
+    <t>9,95</t>
+  </si>
+  <si>
+    <t>3,61</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -343,49 +343,43 @@
     <t>Lena</t>
   </si>
   <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Antoni</t>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
   </si>
   <si>
     <t>Wójcik</t>
   </si>
   <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
   </si>
   <si>
     <t>Mikołaj</t>
   </si>
   <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Jan</t>
   </si>
   <si>
     <t>Grabowski</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
     <t>Wiśniewski</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -421,130 +415,106 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Szymon Wojciechowski</t>
-  </si>
-  <si>
-    <t>28.12.1986</t>
-  </si>
-  <si>
-    <t>7 020,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Wiśniewski</t>
-  </si>
-  <si>
-    <t>14.02.1979</t>
-  </si>
-  <si>
-    <t>14 886,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
-  </si>
-  <si>
-    <t>03.07.1998</t>
-  </si>
-  <si>
-    <t>11 354,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Rogalska</t>
-  </si>
-  <si>
-    <t>21.05.1994</t>
-  </si>
-  <si>
-    <t>13 708,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Lewandowski</t>
-  </si>
-  <si>
-    <t>18.04.2000</t>
-  </si>
-  <si>
-    <t>3 803,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>09.11.2002</t>
-  </si>
-  <si>
-    <t>9 332,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Czarnecka</t>
-  </si>
-  <si>
-    <t>08.12.1978</t>
-  </si>
-  <si>
-    <t>7 498,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Wojciechowski</t>
   </si>
   <si>
-    <t>10.12.1987</t>
-  </si>
-  <si>
-    <t>8 968,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kwiatkowski</t>
-  </si>
-  <si>
-    <t>04.07.1990</t>
-  </si>
-  <si>
-    <t>12 782,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wójcik</t>
-  </si>
-  <si>
-    <t>13.10.1999</t>
-  </si>
-  <si>
-    <t>4 119,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wojciechowski</t>
-  </si>
-  <si>
-    <t>27.07.2004</t>
-  </si>
-  <si>
-    <t>3 633,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Piekarska</t>
-  </si>
-  <si>
-    <t>21.12.2001</t>
-  </si>
-  <si>
-    <t>8 821,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Piekarska</t>
-  </si>
-  <si>
-    <t>27.04.2004</t>
-  </si>
-  <si>
-    <t>11 594,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Piotrowski</t>
-  </si>
-  <si>
-    <t>26.12.1977</t>
-  </si>
-  <si>
-    <t>11 591,00 zł</t>
+    <t>13.11.2003</t>
+  </si>
+  <si>
+    <t>4 054,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>15.04.1985</t>
+  </si>
+  <si>
+    <t>9 213,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Zieliński</t>
+  </si>
+  <si>
+    <t>28.05.1984</t>
+  </si>
+  <si>
+    <t>10 674,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Wiśniewski</t>
+  </si>
+  <si>
+    <t>09.05.1977</t>
+  </si>
+  <si>
+    <t>13 579,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Wiśniewski</t>
+  </si>
+  <si>
+    <t>02.05.1985</t>
+  </si>
+  <si>
+    <t>13 037,00 zł</t>
+  </si>
+  <si>
+    <t>04.09.1982</t>
+  </si>
+  <si>
+    <t>6 661,00 zł</t>
+  </si>
+  <si>
+    <t>02.04.1991</t>
+  </si>
+  <si>
+    <t>11 858,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>26.04.1999</t>
+  </si>
+  <si>
+    <t>13 816,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>25.08.1998</t>
+  </si>
+  <si>
+    <t>11 918,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>20.12.2003</t>
+  </si>
+  <si>
+    <t>2 938,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Czarnecka</t>
+  </si>
+  <si>
+    <t>17.03.1982</t>
+  </si>
+  <si>
+    <t>14 547,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>11.11.1989</t>
+  </si>
+  <si>
+    <t>5 831,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -616,277 +586,316 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 214,00 zł</t>
-  </si>
-  <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 275,00 zł</t>
+  </si>
+  <si>
+    <t>1 696,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 294,00 zł</t>
+  </si>
+  <si>
+    <t>1 501,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>855,00 zł</t>
+  </si>
+  <si>
+    <t>1 043,00 zł</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>577,00 zł</t>
+  </si>
+  <si>
+    <t>669,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 052,00 zł</t>
+  </si>
+  <si>
+    <t>1 231,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>715,00 zł</t>
+  </si>
+  <si>
+    <t>829,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>704,00 zł</t>
+  </si>
+  <si>
+    <t>972,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>599,00 zł</t>
+  </si>
+  <si>
+    <t>743,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 167,00 zł</t>
+  </si>
+  <si>
+    <t>1 575,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>613,00 zł</t>
+  </si>
+  <si>
+    <t>809,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>654,00 zł</t>
+  </si>
+  <si>
+    <t>909,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>1 216,00 zł</t>
+  </si>
+  <si>
+    <t>1 678,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 006,00 zł</t>
+  </si>
+  <si>
+    <t>1 388,00 zł</t>
+  </si>
+  <si>
+    <t>729,00 zł</t>
+  </si>
+  <si>
+    <t>846,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 339,00 zł</t>
+  </si>
+  <si>
+    <t>1 687,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>752,00 zł</t>
+  </si>
+  <si>
+    <t>887,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>1 881,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>1 430,00 zł</t>
+  </si>
+  <si>
+    <t>1 673,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>627,00 zł</t>
+  </si>
+  <si>
+    <t>834,00 zł</t>
+  </si>
+  <si>
+    <t>814,00 zł</t>
+  </si>
+  <si>
+    <t>1 131,00 zł</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 308,00 zł</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 210,00 zł</t>
+  </si>
+  <si>
+    <t>1 343,00 zł</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>642,00 zł</t>
+  </si>
+  <si>
+    <t>886,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
+  </si>
+  <si>
+    <t>1 420,00 zł</t>
+  </si>
+  <si>
+    <t>1 421,00 zł</t>
+  </si>
+  <si>
+    <t>1 876,00 zł</t>
+  </si>
+  <si>
+    <t>1 037,00 zł</t>
+  </si>
+  <si>
+    <t>1 390,00 zł</t>
+  </si>
+  <si>
+    <t>1 379,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>580,00 zł</t>
+  </si>
+  <si>
+    <t>754,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>1 643,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
-    <t>1 412,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
-    <t>1 398,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 606,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>1 809,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 237,00 zł</t>
-  </si>
-  <si>
-    <t>1 460,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 614,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>911,00 zł</t>
-  </si>
-  <si>
-    <t>1 066,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>1 909,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>755,00 zł</t>
-  </si>
-  <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
-    <t>1 227,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>1 430,00 zł</t>
-  </si>
-  <si>
-    <t>1 931,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>791,00 zł</t>
-  </si>
-  <si>
-    <t>949,00 zł</t>
-  </si>
-  <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>748,00 zł</t>
-  </si>
-  <si>
-    <t>838,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 517,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 088,00 zł</t>
-  </si>
-  <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 288,00 zł</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>593,00 zł</t>
-  </si>
-  <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
-    <t>1 134,00 zł</t>
-  </si>
-  <si>
-    <t>1 486,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
-    <t>1 290,00 zł</t>
-  </si>
-  <si>
-    <t>581,00 zł</t>
-  </si>
-  <si>
-    <t>709,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>1 186,00 zł</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
+    <t>łódzkie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1443,19 +1452,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1464,19 +1473,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1488,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1506,19 +1515,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1527,10 +1536,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
@@ -1539,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1548,16 +1557,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1569,19 +1578,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1590,19 +1599,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1611,19 +1620,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1632,16 +1641,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1653,19 +1662,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1677,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="F28" s="3">
         <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1808,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1823,7 +1832,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1838,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1853,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1868,7 +1877,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1883,7 +1892,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2000,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2012,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2024,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2036,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2048,7 +2057,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2096,7 +2105,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2108,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2120,7 +2129,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2132,7 +2141,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2144,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2192,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2204,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2216,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2228,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2240,7 +2249,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2383,25 +2392,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2418,22 +2427,22 @@
         <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2447,16 +2456,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
         <v>5</v>
@@ -2465,7 +2474,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2479,25 +2488,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2511,25 +2520,25 @@
         <v>115</v>
       </c>
       <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2546,22 +2555,22 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2569,31 +2578,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2601,38 +2610,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
         <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2648,7 +2657,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2679,10 +2688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2694,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2704,221 +2713,199 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B26" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2936,10 +2923,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2955,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2965,75 +2952,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3041,22 +3028,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3064,22 +3051,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3087,22 +3074,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3113,19 +3100,19 @@
         <v>204</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3133,22 +3120,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3156,22 +3143,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3179,22 +3166,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3205,19 +3192,19 @@
         <v>204</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3225,22 +3212,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3248,22 +3235,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3271,22 +3258,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3294,22 +3281,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3320,19 +3307,19 @@
         <v>204</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3340,22 +3327,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3363,22 +3350,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3386,22 +3373,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3409,22 +3396,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3435,19 +3422,19 @@
         <v>204</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3455,22 +3442,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3478,22 +3465,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3501,22 +3488,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3524,22 +3511,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3547,22 +3534,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3570,22 +3557,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3593,51 +3580,96 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E40" s="3" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+      <c r="E43" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+      <c r="F43" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>179</v>
+      <c r="G43" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>291</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>179</v>
+      <c r="A46" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3645,7 +3677,7 @@
         <v>292</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3653,7 +3685,31 @@
         <v>293</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_005.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_005.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,00</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,40</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,60</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>12,40</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>6,34</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>9,39</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>26,39</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,66</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>27,37</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>2,31</t>
-  </si>
-  <si>
-    <t>29,95</t>
-  </si>
-  <si>
-    <t>6,30</t>
-  </si>
-  <si>
-    <t>23,04</t>
-  </si>
-  <si>
-    <t>28,54</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,32</t>
-  </si>
-  <si>
-    <t>10,40</t>
-  </si>
-  <si>
-    <t>5,54</t>
-  </si>
-  <si>
-    <t>9,95</t>
-  </si>
-  <si>
-    <t>3,61</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,102 +343,66 @@
     <t>13.11.2003</t>
   </si>
   <si>
-    <t>4 054,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Szymański</t>
   </si>
   <si>
     <t>15.04.1985</t>
   </si>
   <si>
-    <t>9 213,00 zł</t>
-  </si>
-  <si>
     <t>Jan Zieliński</t>
   </si>
   <si>
     <t>28.05.1984</t>
   </si>
   <si>
-    <t>10 674,00 zł</t>
-  </si>
-  <si>
     <t>Jan Wiśniewski</t>
   </si>
   <si>
     <t>09.05.1977</t>
   </si>
   <si>
-    <t>13 579,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Wiśniewski</t>
   </si>
   <si>
     <t>02.05.1985</t>
   </si>
   <si>
-    <t>13 037,00 zł</t>
-  </si>
-  <si>
     <t>04.09.1982</t>
   </si>
   <si>
-    <t>6 661,00 zł</t>
-  </si>
-  <si>
     <t>02.04.1991</t>
   </si>
   <si>
-    <t>11 858,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kaczmarek</t>
   </si>
   <si>
     <t>26.04.1999</t>
   </si>
   <si>
-    <t>13 816,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wilk</t>
   </si>
   <si>
     <t>25.08.1998</t>
   </si>
   <si>
-    <t>11 918,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Bednarska</t>
   </si>
   <si>
     <t>20.12.2003</t>
   </si>
   <si>
-    <t>2 938,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Czarnecka</t>
   </si>
   <si>
     <t>17.03.1982</t>
   </si>
   <si>
-    <t>14 547,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Kaźmierczak</t>
   </si>
   <si>
     <t>11.11.1989</t>
   </si>
   <si>
-    <t>5 831,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -529,9 +415,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -592,12 +475,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>1 696,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -607,12 +484,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 501,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -625,12 +496,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>855,00 zł</t>
-  </si>
-  <si>
-    <t>1 043,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
@@ -640,12 +505,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>577,00 zł</t>
-  </si>
-  <si>
-    <t>669,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -658,12 +517,6 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 052,00 zł</t>
-  </si>
-  <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -676,12 +529,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>715,00 zł</t>
-  </si>
-  <si>
-    <t>829,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -691,12 +538,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>704,00 zł</t>
-  </si>
-  <si>
-    <t>972,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -706,51 +547,21 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>599,00 zł</t>
-  </si>
-  <si>
-    <t>743,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
-    <t>1 575,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>613,00 zł</t>
-  </si>
-  <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>654,00 zł</t>
-  </si>
-  <si>
-    <t>909,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 678,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -760,18 +571,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
-    <t>846,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -781,115 +580,37 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 339,00 zł</t>
-  </si>
-  <si>
-    <t>1 687,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>752,00 zł</t>
-  </si>
-  <si>
-    <t>887,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>1 881,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>1 430,00 zł</t>
-  </si>
-  <si>
-    <t>1 673,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>627,00 zł</t>
-  </si>
-  <si>
-    <t>834,00 zł</t>
-  </si>
-  <si>
-    <t>814,00 zł</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
-  </si>
-  <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>642,00 zł</t>
-  </si>
-  <si>
-    <t>886,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 118,00 zł</t>
-  </si>
-  <si>
-    <t>1 420,00 zł</t>
-  </si>
-  <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 876,00 zł</t>
-  </si>
-  <si>
-    <t>1 037,00 zł</t>
-  </si>
-  <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>754,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
@@ -917,7 +638,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -974,14 +697,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -992,8 +715,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,30 +747,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,7 +1074,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,25 +1149,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,7 +1190,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1487,7 +1211,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1508,7 +1232,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1529,7 +1253,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1550,7 +1274,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1571,7 +1295,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1592,7 +1316,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1613,7 +1337,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1634,7 +1358,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1655,7 +1379,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1676,7 +1400,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1697,27 +1421,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1751,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1771,7 +1485,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1781,29 +1495,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1811,99 +1525,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.2</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.4</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.8</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.6</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12.4</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1936,7 +1650,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,113 +1675,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>6.34</v>
       </c>
       <c r="C15" s="3">
         <v>40</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9.39</v>
       </c>
       <c r="C16" s="3">
         <v>13</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>26.39</v>
       </c>
       <c r="C17" s="3">
         <v>24</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>30.66</v>
       </c>
       <c r="C18" s="3">
         <v>24</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>27.37</v>
       </c>
       <c r="C19" s="3">
         <v>39</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2076,94 +1790,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.31</v>
       </c>
       <c r="C24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>29.95</v>
       </c>
       <c r="C25" s="3">
         <v>40</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6.3</v>
       </c>
       <c r="C26" s="3">
         <v>22</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.039999999999999</v>
       </c>
       <c r="C27" s="3">
         <v>28</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>28.54</v>
       </c>
       <c r="C28" s="3">
         <v>45</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2172,98 +1886,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10.32</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10.4</v>
       </c>
       <c r="C34" s="3">
         <v>8</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5.54</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>9.95</v>
       </c>
       <c r="C36" s="3">
         <v>23</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.61</v>
       </c>
       <c r="C37" s="3">
         <v>34</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2286,7 +2000,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,90 +2020,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2412,16 +2126,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2444,16 +2158,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2476,16 +2190,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2508,16 +2222,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2540,16 +2254,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2572,16 +2286,16 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2604,16 +2318,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
@@ -2636,40 +2350,40 @@
       <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2702,104 +2416,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4054</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10674</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13579</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13037</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2807,10 +2521,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6661</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2818,95 +2532,89 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11858</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>13816</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>11918</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2938</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>14547</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5831</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>165</v>
+      <c r="A25" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2941,86 +2649,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>170</v>
+      <c r="A1" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>187</v>
+      <c r="A15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3028,22 +2736,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1275</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1696</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3051,22 +2759,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1501</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3074,22 +2782,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="D18" s="7">
+        <v>855</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1043</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3097,22 +2805,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
+      </c>
+      <c r="D19" s="7">
+        <v>577</v>
+      </c>
+      <c r="E19" s="7">
+        <v>669</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3120,22 +2828,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1052</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1231</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3143,22 +2851,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>715</v>
+      </c>
+      <c r="E21" s="7">
+        <v>829</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3166,22 +2874,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>704</v>
+      </c>
+      <c r="E22" s="7">
+        <v>972</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3189,22 +2897,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
+      </c>
+      <c r="D23" s="7">
+        <v>599</v>
+      </c>
+      <c r="E23" s="7">
+        <v>743</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3212,22 +2920,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1167</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1575</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3235,22 +2943,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>176</v>
+      </c>
+      <c r="D25" s="7">
+        <v>613</v>
+      </c>
+      <c r="E25" s="7">
+        <v>809</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3258,22 +2966,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
+      </c>
+      <c r="D26" s="7">
+        <v>654</v>
+      </c>
+      <c r="E26" s="7">
+        <v>909</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3281,22 +2989,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>168</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1678</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3304,22 +3012,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>247</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1006</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1388</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3327,22 +3035,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>249</v>
+        <v>171</v>
+      </c>
+      <c r="D29" s="7">
+        <v>729</v>
+      </c>
+      <c r="E29" s="7">
+        <v>846</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3350,22 +3058,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1339</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1687</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3373,22 +3081,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>258</v>
+        <v>164</v>
+      </c>
+      <c r="D31" s="7">
+        <v>752</v>
+      </c>
+      <c r="E31" s="7">
+        <v>887</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3396,22 +3104,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>174</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1404</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1881</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3419,22 +3127,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>171</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1430</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1673</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3442,22 +3150,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="7">
+        <v>627</v>
+      </c>
+      <c r="E34" s="7">
+        <v>834</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3465,22 +3173,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>150</v>
+      </c>
+      <c r="D35" s="7">
+        <v>814</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1131</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3488,22 +3196,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>254</v>
+        <v>191</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1308</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1687</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3511,22 +3219,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>274</v>
+        <v>192</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1210</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1343</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3534,22 +3242,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>277</v>
+        <v>193</v>
+      </c>
+      <c r="D38" s="7">
+        <v>642</v>
+      </c>
+      <c r="E38" s="7">
+        <v>886</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3557,22 +3265,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>280</v>
+        <v>191</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1118</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1420</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3580,22 +3288,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>282</v>
+        <v>193</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1421</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1876</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3603,22 +3311,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>284</v>
+        <v>175</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1037</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1390</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3626,22 +3334,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>285</v>
+        <v>150</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1210</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1379</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3649,68 +3357,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>289</v>
+        <v>196</v>
+      </c>
+      <c r="D43" s="7">
+        <v>580</v>
+      </c>
+      <c r="E43" s="7">
+        <v>754</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>165</v>
+      <c r="A46" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>292</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>295</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>296</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_005.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_005.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 1</t>
   </si>
@@ -61,346 +62,325 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Wojciech Kozłowski</t>
+    <t>Aleksander Nowak</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>Aleksander Grabowski</t>
+  </si>
+  <si>
+    <t>Filip Krawczyk</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Jakub Piotrowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>Oliwia Kubiak</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Aleksander Kozłowski</t>
+  </si>
+  <si>
+    <t>Maja Rogalska</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>Kacper Kaczmarek</t>
   </si>
   <si>
     <t>Oliwia Wójcik</t>
   </si>
   <si>
-    <t>Kacper Wojciechowski</t>
-  </si>
-  <si>
-    <t>Maja Borkowska</t>
-  </si>
-  <si>
-    <t>Antoni Kaczmarek</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 5 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Borkowska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Mikołaj Wojciechowski</t>
-  </si>
-  <si>
-    <t>13.11.2003</t>
-  </si>
-  <si>
-    <t>Jakub Szymański</t>
-  </si>
-  <si>
-    <t>15.04.1985</t>
-  </si>
-  <si>
-    <t>Jan Zieliński</t>
-  </si>
-  <si>
-    <t>28.05.1984</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>09.05.1977</t>
-  </si>
-  <si>
-    <t>Szymon Wiśniewski</t>
-  </si>
-  <si>
-    <t>02.05.1985</t>
-  </si>
-  <si>
-    <t>04.09.1982</t>
-  </si>
-  <si>
-    <t>02.04.1991</t>
-  </si>
-  <si>
-    <t>Adam Kaczmarek</t>
-  </si>
-  <si>
-    <t>26.04.1999</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>25.08.1998</t>
-  </si>
-  <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>20.12.2003</t>
-  </si>
-  <si>
-    <t>Emilia Czarnecka</t>
-  </si>
-  <si>
-    <t>17.03.1982</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>11.11.1989</t>
+    <t>Natalia Zawadzka</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>Aleksander Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Król</t>
+  </si>
+  <si>
+    <t>Wojciech Wojciechowski</t>
+  </si>
+  <si>
+    <t>Julia Piekarska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -415,7 +395,61 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Antoni Dąbrowski</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Adam Szymański</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Lis</t>
+  </si>
+  <si>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -469,154 +503,148 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -688,7 +716,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,12 +739,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -758,13 +780,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1071,7 +1092,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1176,19 +1197,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1197,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1206,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1218,19 +1239,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1242,16 +1263,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1260,19 +1281,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1281,19 +1302,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1302,19 +1323,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1323,19 +1344,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1344,19 +1365,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1365,19 +1386,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1386,16 +1407,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>6</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -1407,19 +1428,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1432,6 +1453,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1465,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1485,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1495,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1525,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.8</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2.2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.8</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.4</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3.7</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20.1</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.6</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.5</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12.4</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.7</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1634,10 +1661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1650,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1675,27 +1702,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1703,85 +1730,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>6.34</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>27.2</v>
       </c>
       <c r="C15" s="3">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>9.39</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.45</v>
       </c>
       <c r="C16" s="3">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>26.39</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1.9</v>
       </c>
       <c r="C17" s="3">
-        <v>24</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>30.66</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>24</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>27.37</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>29.58</v>
       </c>
       <c r="C19" s="3">
-        <v>39</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1790,8 +1817,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1799,85 +1826,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2.31</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>11.1</v>
       </c>
       <c r="C24" s="3">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>29.95</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6.36</v>
       </c>
       <c r="C25" s="3">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>6.3</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>10.51</v>
       </c>
       <c r="C26" s="3">
-        <v>22</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>23.039999999999999</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>29.11</v>
       </c>
       <c r="C27" s="3">
-        <v>28</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>28.54</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>19.17</v>
       </c>
       <c r="C28" s="3">
-        <v>45</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1886,8 +1913,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1895,89 +1922,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10.32</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>15.38</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>10.4</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>29.63</v>
       </c>
       <c r="C34" s="3">
-        <v>8</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>5.54</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>20.27</v>
       </c>
       <c r="C35" s="3">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>9.95</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>23.71</v>
       </c>
       <c r="C36" s="3">
-        <v>23</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3.61</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>20.8</v>
       </c>
       <c r="C37" s="3">
-        <v>34</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1997,10 +2032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2020,111 +2055,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2132,28 +2167,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2164,19 +2199,19 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -2185,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2196,31 +2231,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2228,168 +2263,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2402,10 +2341,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2416,205 +2355,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4054</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9213</v>
+        <v>104</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7522</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>10674</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8792</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13579</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13037</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7866</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6661</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9913</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11858</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4438</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>13816</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3946</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11918</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9187</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2938</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>14547</v>
+        <v>113</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12409</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5831</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4795</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
-        <v>127</v>
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8277</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2601</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C27" s="8">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2631,10 +2625,212 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>117</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>95</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>110</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>156</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>147</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>159</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3">
+        <v>125</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>199</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3">
+        <v>180</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>168</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>117</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="3">
+        <v>141</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>141</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>152</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>198</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2649,86 +2845,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>131</v>
+      <c r="A1" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2736,22 +2932,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1275</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1696</v>
+        <v>161</v>
+      </c>
+      <c r="D16" s="8">
+        <v>773</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1036</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2759,22 +2955,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1294</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1501</v>
+        <v>165</v>
+      </c>
+      <c r="D17" s="8">
+        <v>546</v>
+      </c>
+      <c r="E17" s="8">
+        <v>677</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2782,22 +2978,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="7">
-        <v>855</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1043</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1488</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2083</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2805,22 +3001,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="7">
-        <v>577</v>
-      </c>
-      <c r="E19" s="7">
-        <v>669</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1040</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1248</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2828,22 +3024,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1052</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1231</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1279</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1739</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2851,22 +3047,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="7">
-        <v>715</v>
-      </c>
-      <c r="E21" s="7">
-        <v>829</v>
+        <v>177</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1425</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1966</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2874,22 +3070,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7">
-        <v>704</v>
-      </c>
-      <c r="E22" s="7">
-        <v>972</v>
+        <v>181</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1242</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1553</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2897,22 +3093,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="7">
-        <v>599</v>
-      </c>
-      <c r="E23" s="7">
-        <v>743</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1358</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1779</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2920,22 +3116,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1167</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1575</v>
+        <v>177</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1135</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1283</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2943,22 +3139,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="8">
+        <v>677</v>
+      </c>
+      <c r="E25" s="8">
+        <v>907</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="7">
-        <v>613</v>
-      </c>
-      <c r="E25" s="7">
-        <v>809</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2966,22 +3162,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="7">
-        <v>654</v>
-      </c>
-      <c r="E26" s="7">
-        <v>909</v>
+        <v>189</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1206</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1688</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2989,22 +3185,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1216</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1678</v>
+        <v>177</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1540</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3012,22 +3208,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1006</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1388</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="8">
+        <v>862</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1060</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3035,22 +3231,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="7">
-        <v>729</v>
-      </c>
-      <c r="E29" s="7">
-        <v>846</v>
+        <v>177</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1190</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1392</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3058,22 +3254,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1339</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1687</v>
+        <v>189</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1034</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1282</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3081,22 +3277,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="7">
-        <v>752</v>
-      </c>
-      <c r="E31" s="7">
-        <v>887</v>
+        <v>188</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1195</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1494</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3104,22 +3300,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1404</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1881</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1066</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1407</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3127,22 +3323,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1430</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1673</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1187</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1555</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3150,22 +3346,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="7">
-        <v>627</v>
-      </c>
-      <c r="E34" s="7">
-        <v>834</v>
+        <v>182</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1421</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1947</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3173,22 +3369,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="7">
-        <v>814</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1131</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>546</v>
+      </c>
+      <c r="E35" s="8">
+        <v>699</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3196,22 +3392,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1308</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1687</v>
+        <v>182</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1209</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1632</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3219,22 +3415,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1210</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1343</v>
+        <v>169</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1193</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1622</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3242,22 +3438,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="8">
+        <v>612</v>
+      </c>
+      <c r="E38" s="8">
+        <v>838</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D38" s="7">
-        <v>642</v>
-      </c>
-      <c r="E38" s="7">
-        <v>886</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3265,22 +3461,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1118</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1420</v>
+        <v>196</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1259</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1448</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3288,22 +3484,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1421</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1876</v>
+        <v>205</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1082</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1212</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3311,104 +3507,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1037</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1390</v>
+        <v>207</v>
+      </c>
+      <c r="D41" s="8">
+        <v>519</v>
+      </c>
+      <c r="E41" s="8">
+        <v>727</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1210</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1379</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7">
-        <v>580</v>
-      </c>
-      <c r="E43" s="7">
-        <v>754</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>198</v>
-      </c>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
